--- a/Doc/CBC_parameters.xlsx
+++ b/Doc/CBC_parameters.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golow\Documents\MEGAsync\Electronics\GitHub_MyProjects_\CAR_BS_CONTROLLER_FLprog\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6958A47-2534-489A-9FC4-46F3CBD45AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C3421-F280-463D-BECF-FF96FD44E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Setpoint_parametrs" sheetId="1" r:id="rId1"/>
-    <sheet name="Main_parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Main_parametrs" sheetId="1" r:id="rId1"/>
+    <sheet name="Setpoint_parametrs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>pump_off_delay</t>
   </si>
@@ -185,6 +185,69 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>battery_voltage</t>
+  </si>
+  <si>
+    <t>outside_temperature</t>
+  </si>
+  <si>
+    <t>inside_temperature</t>
+  </si>
+  <si>
+    <t>fridge_temperature</t>
+  </si>
+  <si>
+    <t>sensors_supply_voltage</t>
+  </si>
+  <si>
+    <t>res_sensor_resistance</t>
+  </si>
+  <si>
+    <t>water_level_percent</t>
+  </si>
+  <si>
+    <t>water_level_liter</t>
+  </si>
+  <si>
+    <t>door_switch_state</t>
+  </si>
+  <si>
+    <t>proximity_sensor_state</t>
+  </si>
+  <si>
+    <t>ignition_switch_state</t>
+  </si>
+  <si>
+    <t>converter_output_state</t>
+  </si>
+  <si>
+    <t>fridge_output_state</t>
+  </si>
+  <si>
+    <t>pump_output_state</t>
+  </si>
+  <si>
+    <t>sensors_supply_output_state</t>
+  </si>
+  <si>
+    <t>main_supply_output_state</t>
+  </si>
+  <si>
+    <t>wdt_reset_output_state</t>
+  </si>
+  <si>
+    <t>low_washer_water_level</t>
+  </si>
+  <si>
+    <t>flag_system_started</t>
   </si>
 </sst>
 </file>
@@ -232,12 +295,15 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -253,7 +319,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E9A0754-F4E2-4099-AAEB-A321768BA807}" name="Таблица2" displayName="Таблица2" ref="A1:F19" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2FEB03A4-7C38-494C-AB66-EB9CB83661CA}" name="Таблица4" displayName="Таблица4" ref="A1:F121" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F121" xr:uid="{2FEB03A4-7C38-494C-AB66-EB9CB83661CA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{330F0CFF-1CF4-46F5-99E7-8F10C17D2B17}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{6F2FD408-D3E3-4DC2-B8AF-879844B2DDBC}" name="Discription"/>
+    <tableColumn id="3" xr3:uid="{F6CB95A1-A3CE-4A4B-84C1-5F98431D2810}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{FB699BD7-EC00-4C64-A193-AF19D8836176}" name="Столбец4"/>
+    <tableColumn id="5" xr3:uid="{DE76648E-1679-4723-9B13-8D98D4D94996}" name="Столбец5"/>
+    <tableColumn id="6" xr3:uid="{903E9ADC-7B48-47F1-B1BD-9A4659055BC9}" name="Столбец6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0E9A0754-F4E2-4099-AAEB-A321768BA807}" name="Таблица2" displayName="Таблица2" ref="A1:F19" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:F19" xr:uid="{0E9A0754-F4E2-4099-AAEB-A321768BA807}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1AA6D40F-6FED-4A32-99B6-2391B54DE57F}" name="Parametr"/>
@@ -530,15 +611,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -546,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C5755E-D54E-4EFB-A7E5-E70D6D612F74}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -714,6 +922,9 @@
       </c>
       <c r="C19" s="1"/>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C20" s="1"/>
+    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
